--- a/excel_spreadsheets/hyperparameters.xlsx
+++ b/excel_spreadsheets/hyperparameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khoul\PycharmProjects\Project_fatigue_public\excel_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036D7E5E-797B-4F4E-AE77-6F7B9DD4A5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439F3017-291F-4021-AF81-9890BC7672F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12900" yWindow="2100" windowWidth="38700" windowHeight="14970" tabRatio="870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lin" sheetId="8" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>num_layers</t>
   </si>
@@ -375,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF5E32B-05AE-4907-9EEC-9CA49FA37A78}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,10 +407,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -419,58 +419,7 @@
         <v>6</v>
       </c>
       <c r="E2">
-        <v>5001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>3001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>150</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>101</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -480,10 +429,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D21C1AA-C44D-4FDD-9271-F2D425994A50}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,10 +461,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -524,330 +473,7 @@
         <v>6</v>
       </c>
       <c r="E2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>150</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>200</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>150</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>200</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>100</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>150</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>200</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>100</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20">
-        <v>150</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21">
-        <v>200</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21">
-        <v>200</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
